--- a/Resource/ReportList/ReportList.xlsx
+++ b/Resource/ReportList/ReportList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KSP-MIS\Resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KSP-MIS\Resource\ReportList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F2BC9D-D10D-4EDD-B7A3-F92302AC1B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4F4991-1148-4896-9B10-BB70639D6A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{47DB0EF2-5DFF-4F7D-AC0E-BDA88FD85439}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{47DB0EF2-5DFF-4F7D-AC0E-BDA88FD85439}"/>
   </bookViews>
   <sheets>
     <sheet name="งบประมาณ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t>การแจ้งงานบริการอาคารสถานที่</t>
   </si>
@@ -79,18 +79,12 @@
     <t>จำนวนการออกใบแทนใบอนุญาต และสาเหตุการออกใบแทน</t>
   </si>
   <si>
-    <t>เงินเรายได้รายเดือน และเงินตอบแทนอื่นๆ</t>
-  </si>
-  <si>
     <t>เงินเดือนย้อนหลัง 60 เดือน</t>
   </si>
   <si>
     <t>รายชื่อและยอดรวมเงินหักสะสม กบจ.</t>
   </si>
   <si>
-    <t>สรุปข้อมูลกิจกรรมการพัฒนาบุคคลากรตามประเภท</t>
-  </si>
-  <si>
     <t>พนักงานผู้มีคุณสมบัติคัดเลือกในกลุ่มบริหาร เพื่อเลื่อนวิทยฐานะ</t>
   </si>
   <si>
@@ -331,9 +325,6 @@
     <t>LIC-15</t>
   </si>
   <si>
-    <t>10 อันดับประเทศที่ได้รับการออกใบอนุญาตตามประเภทคำขอ</t>
-  </si>
-  <si>
     <t>LIC-16</t>
   </si>
   <si>
@@ -341,6 +332,27 @@
   </si>
   <si>
     <t>จำนวนชาวต่างประเทศที่ได้รับอนุญาต ตามช่วงเวลา</t>
+  </si>
+  <si>
+    <t>10 อันดับประเทศที่ได้รับใบอนุญาตตามประเภทคำขอ</t>
+  </si>
+  <si>
+    <t>ข้อมูลกิจกรรมการพัฒนาบุคคลากรตามประเภท</t>
+  </si>
+  <si>
+    <t>เงินรายได้รายเดือน และเงินตอบแทนอื่นๆ</t>
+  </si>
+  <si>
+    <t>จ่าย</t>
+  </si>
+  <si>
+    <t>รับ</t>
+  </si>
+  <si>
+    <t>ทรัพยากร</t>
+  </si>
+  <si>
+    <t>สรุปงบดุลย์และประเมินผล</t>
   </si>
 </sst>
 </file>
@@ -705,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A149963-E7A3-4396-8058-C5399ECE0720}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -717,167 +729,224 @@
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +959,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -903,23 +972,23 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +1001,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -942,26 +1011,26 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -971,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A274BC3-5DF0-43C1-B2CA-1D8A4FFD176D}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -985,138 +1054,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1127,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0978890-3B60-407C-BF8E-ADD7981876F9}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1140,66 +1209,72 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/ReportList/ReportList.xlsx
+++ b/Resource/ReportList/ReportList.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KSP-MIS\Resource\ReportList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4F4991-1148-4896-9B10-BB70639D6A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F855669-BB35-40A8-846B-11FB8BF22297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{47DB0EF2-5DFF-4F7D-AC0E-BDA88FD85439}"/>
   </bookViews>
   <sheets>
-    <sheet name="งบประมาณ" sheetId="1" r:id="rId1"/>
-    <sheet name="มาตรฐาน" sheetId="2" r:id="rId2"/>
-    <sheet name="จรรยาบรรณ" sheetId="3" r:id="rId3"/>
-    <sheet name="ใบอนุญาต" sheetId="4" r:id="rId4"/>
-    <sheet name="บุคคล" sheetId="5" r:id="rId5"/>
+    <sheet name="All" sheetId="6" r:id="rId1"/>
+    <sheet name="งบประมาณ" sheetId="1" r:id="rId2"/>
+    <sheet name="มาตรฐาน" sheetId="2" r:id="rId3"/>
+    <sheet name="จรรยาบรรณ" sheetId="3" r:id="rId4"/>
+    <sheet name="ใบอนุญาต" sheetId="4" r:id="rId5"/>
+    <sheet name="บุคคล" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="162">
   <si>
     <t>การแจ้งงานบริการอาคารสถานที่</t>
   </si>
@@ -353,6 +354,174 @@
   </si>
   <si>
     <t>สรุปงบดุลย์และประเมินผล</t>
+  </si>
+  <si>
+    <t>ใบอนุญาตประกอบวิชาชีพ</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับใบอนุญาต</t>
+  </si>
+  <si>
+    <t>ตามประเภทคำขอ</t>
+  </si>
+  <si>
+    <t>ตามประเภทคำขอ รายปี</t>
+  </si>
+  <si>
+    <t>ตามประเภทวิชาชีพ รายปี</t>
+  </si>
+  <si>
+    <t>ตามสังกัด</t>
+  </si>
+  <si>
+    <t>ตามสังกัด รายปี</t>
+  </si>
+  <si>
+    <t>ตามสังกัด รายเดือน</t>
+  </si>
+  <si>
+    <t>ตามสังกัด และประเภทวิชาชีพ รายปี</t>
+  </si>
+  <si>
+    <t>ตามสังกัดถานศึกษา และประเภทวิชาชีพ รายปี</t>
+  </si>
+  <si>
+    <t>ตามสังกัด และช่วงอายุ</t>
+  </si>
+  <si>
+    <t>ตามวุฒิ และประเภทวิชาชีพ</t>
+  </si>
+  <si>
+    <t>ตามวุฒิการศึกษา ในแต่ละปี</t>
+  </si>
+  <si>
+    <t>ตามสังกัด ประเภทวิชาชีพ และเพศ</t>
+  </si>
+  <si>
+    <t>จำนวนเอกสาร</t>
+  </si>
+  <si>
+    <t>เอกสารเข้า ตามประเภทเอกสาร</t>
+  </si>
+  <si>
+    <t>เอกสารออก ตามประเภทเอกสาร</t>
+  </si>
+  <si>
+    <t>สรุปจำนวนบุคคลากรต่างประเทศ</t>
+  </si>
+  <si>
+    <t>มาตรฐานวิชาชีพครู</t>
+  </si>
+  <si>
+    <t>จรรยาบรรณวิชาชีพครู</t>
+  </si>
+  <si>
+    <t>งานบริหารงานบุคคล</t>
+  </si>
+  <si>
+    <t>จำนวนบุคคลากร</t>
+  </si>
+  <si>
+    <t>ตามสายงาน</t>
+  </si>
+  <si>
+    <t>ตามระดับความชำนาญ</t>
+  </si>
+  <si>
+    <t>เงินค่าตอบแทน</t>
+  </si>
+  <si>
+    <t>การพัฒนาทรัพยากรบุคคล</t>
+  </si>
+  <si>
+    <t>กิจกรรมการพัฒนาบุคคลากรตามประเภท</t>
+  </si>
+  <si>
+    <t>ผู้มีคุณสมบัติคัดเลือกในกลุ่มบริหาร เพื่อเลื่อนวิทยฐานะ</t>
+  </si>
+  <si>
+    <t>การขอพระราชทานเครื่องราชอิสริยาภรณ์</t>
+  </si>
+  <si>
+    <t>การบริหารงบประมาณ</t>
+  </si>
+  <si>
+    <t>งบดุลย์และการประเมินผล</t>
+  </si>
+  <si>
+    <t>สรุปฐานะทางการเงิน</t>
+  </si>
+  <si>
+    <t>สรุปผลการดำเนินงานทางการเงิน</t>
+  </si>
+  <si>
+    <t>งบประมาณรายจ่ายประจำปี</t>
+  </si>
+  <si>
+    <t>ตามพันธกิจ/งาน/โครงการ/งบรายจ่าย</t>
+  </si>
+  <si>
+    <t>ตามพันธกิจ/งบรายจ่าย</t>
+  </si>
+  <si>
+    <t>ตามส่วนงาน/งบรายจ่าย</t>
+  </si>
+  <si>
+    <t>ตามพันธกิจ/ไตรมาส</t>
+  </si>
+  <si>
+    <t>เปรียบเทียบงบระหว่างปีตามแผนงาน</t>
+  </si>
+  <si>
+    <t>เปรียบเทียบงบระหว่างปีตามส่วนงาน</t>
+  </si>
+  <si>
+    <t>การจัดซื้อจัดจ้างประจำปี</t>
+  </si>
+  <si>
+    <t>การบริหารทรัพยากร</t>
+  </si>
+  <si>
+    <t>การออกใบแทนใบอนุญาต และสาเหตุการออกใบแทน</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับใบอนุญาตตามประเภทคำขอ</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับใบอนุญาตตามประเภทคำขอ รายปี</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับใบอนุญาตตามประเภทวิชาชีพ รายปี</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับใบอนุญาตตามสังกัด</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับใบอนุญาตตามสังกัด รายปี</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับใบอนุญาตตามสังกัด รายเดือน</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับใบอนุญาตตามสังกัด และประเภทวิชาชีพ รายปี</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ได้รับใบอนุญาตตามสังกัดถานศึกษา และประเภทวิชาชีพ รายปี</t>
+  </si>
+  <si>
+    <t>จำนวนเอกสารเอกสารเข้า ตามประเภทเอกสาร</t>
+  </si>
+  <si>
+    <t>จำนวนเอกสารเอกสารออก ตามประเภทเอกสาร</t>
+  </si>
+  <si>
+    <t>จำนวนเอกสารการออกใบแทนใบอนุญาต และสาเหตุการออกใบแทน</t>
+  </si>
+  <si>
+    <t>งบประมาณรายจ่ายประจำปีตามส่วนงาน/งบรายจ่าย</t>
+  </si>
+  <si>
+    <t>งบประมาณรายจ่ายประจำปีตามพันธกิจ/ไตรมาส</t>
   </si>
 </sst>
 </file>
@@ -374,7 +543,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +553,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,9 +599,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,11 +920,663 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D0EB7F-EB33-439E-AD3F-6101487FE1DE}">
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="35.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A149963-E7A3-4396-8058-C5399ECE0720}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -954,12 +1810,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4D1ACD-A72F-4CD2-BFCA-6A96F4D990D0}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -996,12 +1852,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD51C6F-C8B6-4258-B5AB-D32E9B1E8342}">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1038,12 +1894,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A274BC3-5DF0-43C1-B2CA-1D8A4FFD176D}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1194,12 +2050,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0978890-3B60-407C-BF8E-ADD7981876F9}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Resource/ReportList/ReportList.xlsx
+++ b/Resource/ReportList/ReportList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KSP-MIS\Resource\ReportList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F855669-BB35-40A8-846B-11FB8BF22297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D85CE6-8C63-4B05-BAAD-CF165190FC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{47DB0EF2-5DFF-4F7D-AC0E-BDA88FD85439}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="169">
   <si>
     <t>การแจ้งงานบริการอาคารสถานที่</t>
   </si>
@@ -522,6 +522,27 @@
   </si>
   <si>
     <t>งบประมาณรายจ่ายประจำปีตามพันธกิจ/ไตรมาส</t>
+  </si>
+  <si>
+    <t>สารบรรณ</t>
+  </si>
+  <si>
+    <t>เปรียบเทียบจำนวนเอกสาร เข้า-ออกตามหน่วยงาน</t>
+  </si>
+  <si>
+    <t>จำนวนเข้าตามหน่วยงาน ประเภทเอกสาร</t>
+  </si>
+  <si>
+    <t>จำนวนออกตามหน่วยงาน ประเภทเอกสาร</t>
+  </si>
+  <si>
+    <t>DOC-01</t>
+  </si>
+  <si>
+    <t>DOC-02</t>
+  </si>
+  <si>
+    <t>DOC-03</t>
   </si>
 </sst>
 </file>
@@ -921,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D0EB7F-EB33-439E-AD3F-6101487FE1DE}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1292,6 +1313,9 @@
       <c r="D29" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="H29" s="6" t="s">
         <v>4</v>
       </c>
@@ -1300,6 +1324,9 @@
       <c r="A30" t="s">
         <v>126</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="H30" s="6" t="s">
         <v>9</v>
       </c>
@@ -1308,6 +1335,9 @@
       <c r="B31" t="s">
         <v>127</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="H31" s="6" t="s">
         <v>0</v>
       </c>
@@ -1558,12 +1588,41 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C65" t="s">
         <v>0</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
